--- a/data/Anexo3.Divipola_CE_15-03-23.xlsx
+++ b/data/Anexo3.Divipola_CE_15-03-23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3cd00bf27bc2fc9/Escritorio/mortalidad_colombia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{89C76CF4-25FA-43A4-8202-4087F71B0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D23FE677-450A-48C8-8BD4-2F60A4DDCE90}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{89C76CF4-25FA-43A4-8202-4087F71B0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B76738BC-9624-4E67-A54A-2AF3CE84CD7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -6246,6 +6246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6527,24 +6531,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F32666-F94E-486C-9743-1E9AA25B1683}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2030</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +6589,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -6630,7 +6633,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -6806,7 +6809,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -6872,7 +6875,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -6916,7 +6919,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -6938,7 +6941,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -6982,7 +6985,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -7004,7 +7007,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -7026,7 +7029,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -7048,7 +7051,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -7114,7 +7117,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>26</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -7334,7 +7337,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
@@ -7356,7 +7359,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>43960</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -7576,7 +7579,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
@@ -7620,7 +7623,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>52</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>54</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -7818,7 +7821,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>58</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>60</v>
       </c>
@@ -7906,7 +7909,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>61</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>62</v>
       </c>
@@ -7950,7 +7953,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -7994,7 +7997,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>65</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>66</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>67</v>
       </c>
@@ -8060,7 +8063,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>68</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>69</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
@@ -8126,7 +8129,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>72</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -8192,7 +8195,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>74</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>75</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>76</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -8280,7 +8283,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>78</v>
       </c>
@@ -8302,7 +8305,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>79</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -8346,7 +8349,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>81</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>82</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>83</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>84</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>85</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -8478,7 +8481,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>87</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>88</v>
       </c>
@@ -8522,7 +8525,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>89</v>
       </c>
@@ -8544,7 +8547,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>90</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>91</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>92</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>93</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>94</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>95</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>96</v>
       </c>
@@ -8698,7 +8701,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>97</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>98</v>
       </c>
@@ -8742,7 +8745,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>99</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -8786,7 +8789,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>101</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>102</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>103</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>104</v>
       </c>
@@ -8874,7 +8877,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>105</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>106</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -8940,7 +8943,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>108</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>109</v>
       </c>
@@ -8984,7 +8987,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -9006,7 +9009,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>111</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>112</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>113</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>115</v>
       </c>
@@ -9116,7 +9119,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>116</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>43960</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -9182,7 +9185,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>119</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
         <v>120</v>
       </c>
@@ -9226,7 +9229,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
         <v>121</v>
       </c>
@@ -9248,7 +9251,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>123</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -9314,7 +9317,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>125</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>126</v>
       </c>
@@ -9358,7 +9361,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>127</v>
       </c>
@@ -9380,7 +9383,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>128</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>129</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>130</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>131</v>
       </c>
@@ -9468,7 +9471,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>132</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>133</v>
       </c>
@@ -9512,7 +9515,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>134</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>135</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>136</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>137</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>138</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>139</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>140</v>
       </c>
@@ -9666,7 +9669,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>141</v>
       </c>
@@ -9688,7 +9691,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
@@ -9710,7 +9713,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>143</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>144</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>145</v>
       </c>
@@ -9776,7 +9779,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>147</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>148</v>
       </c>
@@ -9842,7 +9845,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>149</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>150</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>152</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>153</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
@@ -9996,7 +9999,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="5" t="s">
         <v>156</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="s">
         <v>157</v>
       </c>
@@ -10040,7 +10043,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="5" t="s">
         <v>158</v>
       </c>
@@ -10062,7 +10065,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="s">
         <v>159</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>161</v>
       </c>
@@ -10128,7 +10131,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
         <v>162</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
         <v>163</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>166</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>168</v>
       </c>
@@ -10282,7 +10285,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="s">
         <v>170</v>
       </c>
@@ -10326,7 +10329,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="5" t="s">
         <v>174</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="5" t="s">
         <v>175</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="5" t="s">
         <v>178</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
@@ -10524,7 +10527,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
@@ -10546,7 +10549,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>181</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="s">
         <v>183</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
@@ -10634,7 +10637,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="s">
         <v>185</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="s">
         <v>188</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5" t="s">
         <v>189</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>190</v>
       </c>
@@ -10766,7 +10769,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="s">
         <v>191</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="5" t="s">
         <v>192</v>
       </c>
@@ -10810,7 +10813,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5" t="s">
         <v>193</v>
       </c>
@@ -10832,7 +10835,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5" t="s">
         <v>194</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="5" t="s">
         <v>195</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5" t="s">
         <v>196</v>
       </c>
@@ -10898,7 +10901,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="s">
         <v>197</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>44053</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>198</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="s">
         <v>199</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5" t="s">
         <v>200</v>
       </c>
@@ -10986,7 +10989,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
         <v>201</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="5" t="s">
         <v>202</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="s">
         <v>203</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="s">
         <v>204</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>205</v>
       </c>
@@ -11096,7 +11099,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>206</v>
       </c>
@@ -11118,7 +11121,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="s">
         <v>207</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
         <v>208</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="s">
         <v>209</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>210</v>
       </c>
@@ -11206,7 +11209,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="s">
         <v>211</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="5" t="s">
         <v>212</v>
       </c>
@@ -11250,7 +11253,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>213</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="5" t="s">
         <v>214</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="s">
         <v>215</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="5" t="s">
         <v>216</v>
       </c>
@@ -11338,7 +11341,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="s">
         <v>217</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="5" t="s">
         <v>218</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>219</v>
       </c>
@@ -11404,7 +11407,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="5" t="s">
         <v>220</v>
       </c>
@@ -11426,7 +11429,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="s">
         <v>221</v>
       </c>
@@ -11448,7 +11451,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="s">
         <v>222</v>
       </c>
@@ -11470,7 +11473,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="5" t="s">
         <v>223</v>
       </c>
@@ -11492,7 +11495,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
         <v>224</v>
       </c>
@@ -11514,7 +11517,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="s">
         <v>225</v>
       </c>
@@ -11536,7 +11539,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="5" t="s">
         <v>226</v>
       </c>
@@ -11558,7 +11561,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="s">
         <v>227</v>
       </c>
@@ -11580,7 +11583,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="5" t="s">
         <v>228</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="s">
         <v>229</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="5" t="s">
         <v>230</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="s">
         <v>231</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="5" t="s">
         <v>232</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="s">
         <v>233</v>
       </c>
@@ -11712,7 +11715,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="s">
         <v>234</v>
       </c>
@@ -11734,7 +11737,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>235</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="5" t="s">
         <v>236</v>
       </c>
@@ -11778,7 +11781,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="s">
         <v>237</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="5" t="s">
         <v>238</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="5" t="s">
         <v>240</v>
       </c>
@@ -11866,7 +11869,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="s">
         <v>241</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="5" t="s">
         <v>242</v>
       </c>
@@ -11910,7 +11913,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="5" t="s">
         <v>243</v>
       </c>
@@ -11932,7 +11935,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="5" t="s">
         <v>244</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="5" t="s">
         <v>245</v>
       </c>
@@ -11976,7 +11979,7 @@
         <v>44066</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="5" t="s">
         <v>246</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="5" t="s">
         <v>248</v>
       </c>
@@ -12042,7 +12045,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="5" t="s">
         <v>249</v>
       </c>
@@ -12064,7 +12067,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="s">
         <v>250</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="5" t="s">
         <v>251</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="s">
         <v>252</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="s">
         <v>253</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="5" t="s">
         <v>254</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="5" t="s">
         <v>255</v>
       </c>
@@ -12196,7 +12199,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="s">
         <v>256</v>
       </c>
@@ -12218,7 +12221,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="5" t="s">
         <v>257</v>
       </c>
@@ -12240,7 +12243,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="s">
         <v>258</v>
       </c>
@@ -12262,7 +12265,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="s">
         <v>259</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="5" t="s">
         <v>260</v>
       </c>
@@ -12306,7 +12309,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="5" t="s">
         <v>261</v>
       </c>
@@ -12328,7 +12331,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="s">
         <v>262</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="5" t="s">
         <v>263</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>44045</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="s">
         <v>264</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="5" t="s">
         <v>265</v>
       </c>
@@ -12416,7 +12419,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="s">
         <v>266</v>
       </c>
@@ -12438,7 +12441,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="s">
         <v>267</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="s">
         <v>268</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="5" t="s">
         <v>269</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="5" t="s">
         <v>270</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="5" t="s">
         <v>271</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="s">
         <v>272</v>
       </c>
@@ -12570,7 +12573,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="s">
         <v>273</v>
       </c>
@@ -12592,7 +12595,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="5" t="s">
         <v>274</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="5" t="s">
         <v>275</v>
       </c>
@@ -12636,7 +12639,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="s">
         <v>276</v>
       </c>
@@ -12658,7 +12661,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="5" t="s">
         <v>277</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="s">
         <v>278</v>
       </c>
@@ -12702,7 +12705,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="s">
         <v>279</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="s">
         <v>280</v>
       </c>
@@ -12746,7 +12749,7 @@
         <v>44045</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="5" t="s">
         <v>281</v>
       </c>
@@ -12768,7 +12771,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
         <v>15740</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
         <v>15753</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="s">
         <v>282</v>
       </c>
@@ -12834,7 +12837,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="s">
         <v>283</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="s">
         <v>284</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="s">
         <v>285</v>
       </c>
@@ -12900,7 +12903,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="s">
         <v>286</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>287</v>
       </c>
@@ -12944,7 +12947,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="5" t="s">
         <v>288</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
         <v>289</v>
       </c>
@@ -12988,7 +12991,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="5" t="s">
         <v>290</v>
       </c>
@@ -13010,7 +13013,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="5" t="s">
         <v>291</v>
       </c>
@@ -13032,7 +13035,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="5" t="s">
         <v>292</v>
       </c>
@@ -13054,7 +13057,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="5" t="s">
         <v>293</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="s">
         <v>294</v>
       </c>
@@ -13098,7 +13101,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="s">
         <v>295</v>
       </c>
@@ -13120,7 +13123,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="s">
         <v>296</v>
       </c>
@@ -13142,7 +13145,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="s">
         <v>297</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="s">
         <v>298</v>
       </c>
@@ -13186,7 +13189,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="s">
         <v>299</v>
       </c>
@@ -13208,7 +13211,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="5" t="s">
         <v>300</v>
       </c>
@@ -13230,7 +13233,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="5" t="s">
         <v>301</v>
       </c>
@@ -13252,7 +13255,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="5" t="s">
         <v>302</v>
       </c>
@@ -13274,7 +13277,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="5" t="s">
         <v>303</v>
       </c>
@@ -13296,7 +13299,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="5" t="s">
         <v>304</v>
       </c>
@@ -13318,7 +13321,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="5" t="s">
         <v>305</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="s">
         <v>306</v>
       </c>
@@ -13362,7 +13365,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="s">
         <v>307</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="5" t="s">
         <v>308</v>
       </c>
@@ -13406,7 +13409,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
         <v>309</v>
       </c>
@@ -13428,7 +13431,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="s">
         <v>310</v>
       </c>
@@ -13450,7 +13453,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="5" t="s">
         <v>311</v>
       </c>
@@ -13472,7 +13475,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="5" t="s">
         <v>312</v>
       </c>
@@ -13494,7 +13497,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>313</v>
       </c>
@@ -13516,7 +13519,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="5" t="s">
         <v>314</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="s">
         <v>315</v>
       </c>
@@ -13560,7 +13563,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="5" t="s">
         <v>316</v>
       </c>
@@ -13582,7 +13585,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="s">
         <v>317</v>
       </c>
@@ -13604,7 +13607,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="5" t="s">
         <v>318</v>
       </c>
@@ -13626,7 +13629,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="s">
         <v>319</v>
       </c>
@@ -13648,7 +13651,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="5" t="s">
         <v>320</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="5" t="s">
         <v>321</v>
       </c>
@@ -13692,7 +13695,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="s">
         <v>322</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="5" t="s">
         <v>323</v>
       </c>
@@ -13736,7 +13739,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
         <v>17614</v>
       </c>
@@ -13758,7 +13761,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="5" t="s">
         <v>324</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="s">
         <v>325</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="s">
         <v>326</v>
       </c>
@@ -13824,7 +13827,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="5" t="s">
         <v>327</v>
       </c>
@@ -13846,7 +13849,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="5" t="s">
         <v>328</v>
       </c>
@@ -13868,7 +13871,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="s">
         <v>329</v>
       </c>
@@ -13890,7 +13893,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="s">
         <v>330</v>
       </c>
@@ -13912,7 +13915,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="5" t="s">
         <v>331</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="5" t="s">
         <v>332</v>
       </c>
@@ -13956,7 +13959,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="s">
         <v>333</v>
       </c>
@@ -13978,7 +13981,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="5" t="s">
         <v>334</v>
       </c>
@@ -14000,7 +14003,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="s">
         <v>335</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="5" t="s">
         <v>336</v>
       </c>
@@ -14044,7 +14047,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="s">
         <v>337</v>
       </c>
@@ -14066,7 +14069,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="5" t="s">
         <v>338</v>
       </c>
@@ -14088,7 +14091,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="s">
         <v>339</v>
       </c>
@@ -14110,7 +14113,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="5" t="s">
         <v>340</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="5" t="s">
         <v>341</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="5" t="s">
         <v>342</v>
       </c>
@@ -14176,7 +14179,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="s">
         <v>343</v>
       </c>
@@ -14198,7 +14201,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="5" t="s">
         <v>344</v>
       </c>
@@ -14220,7 +14223,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
         <v>345</v>
       </c>
@@ -14242,7 +14245,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
         <v>346</v>
       </c>
@@ -14264,7 +14267,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
         <v>347</v>
       </c>
@@ -14286,7 +14289,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
         <v>348</v>
       </c>
@@ -14308,7 +14311,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
         <v>349</v>
       </c>
@@ -14330,7 +14333,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
         <v>350</v>
       </c>
@@ -14352,7 +14355,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="5" t="s">
         <v>351</v>
       </c>
@@ -14374,7 +14377,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="5" t="s">
         <v>352</v>
       </c>
@@ -14396,7 +14399,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="5" t="s">
         <v>353</v>
       </c>
@@ -14418,7 +14421,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="s">
         <v>354</v>
       </c>
@@ -14440,7 +14443,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="s">
         <v>355</v>
       </c>
@@ -14462,7 +14465,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="5" t="s">
         <v>356</v>
       </c>
@@ -14484,7 +14487,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="5" t="s">
         <v>357</v>
       </c>
@@ -14506,7 +14509,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="s">
         <v>358</v>
       </c>
@@ -14528,7 +14531,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="5" t="s">
         <v>359</v>
       </c>
@@ -14550,7 +14553,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="s">
         <v>360</v>
       </c>
@@ -14572,7 +14575,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="5" t="s">
         <v>361</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="5" t="s">
         <v>362</v>
       </c>
@@ -14616,7 +14619,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="5" t="s">
         <v>363</v>
       </c>
@@ -14638,7 +14641,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="s">
         <v>364</v>
       </c>
@@ -14660,7 +14663,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="5" t="s">
         <v>365</v>
       </c>
@@ -14682,7 +14685,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="5" t="s">
         <v>366</v>
       </c>
@@ -14704,7 +14707,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="5" t="s">
         <v>367</v>
       </c>
@@ -14726,7 +14729,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="5" t="s">
         <v>368</v>
       </c>
@@ -14748,7 +14751,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="s">
         <v>369</v>
       </c>
@@ -14770,7 +14773,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="5" t="s">
         <v>370</v>
       </c>
@@ -14792,7 +14795,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="5" t="s">
         <v>371</v>
       </c>
@@ -14814,7 +14817,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="5" t="s">
         <v>372</v>
       </c>
@@ -14836,7 +14839,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
         <v>19290</v>
       </c>
@@ -14858,7 +14861,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="5" t="s">
         <v>373</v>
       </c>
@@ -14880,7 +14883,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
         <v>374</v>
       </c>
@@ -14902,7 +14905,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="5" t="s">
         <v>375</v>
       </c>
@@ -14924,7 +14927,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="s">
         <v>376</v>
       </c>
@@ -14946,7 +14949,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="5" t="s">
         <v>377</v>
       </c>
@@ -14968,7 +14971,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="s">
         <v>378</v>
       </c>
@@ -14990,7 +14993,7 @@
         <v>44045</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="s">
         <v>379</v>
       </c>
@@ -15012,7 +15015,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="s">
         <v>380</v>
       </c>
@@ -15034,7 +15037,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="s">
         <v>381</v>
       </c>
@@ -15056,7 +15059,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="s">
         <v>382</v>
       </c>
@@ -15078,7 +15081,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="s">
         <v>383</v>
       </c>
@@ -15100,7 +15103,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="s">
         <v>384</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="5" t="s">
         <v>385</v>
       </c>
@@ -15144,7 +15147,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="s">
         <v>386</v>
       </c>
@@ -15166,7 +15169,7 @@
         <v>44065</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
         <v>19548</v>
       </c>
@@ -15188,7 +15191,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="s">
         <v>387</v>
       </c>
@@ -15210,7 +15213,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="s">
         <v>388</v>
       </c>
@@ -15232,7 +15235,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="s">
         <v>389</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="5" t="s">
         <v>390</v>
       </c>
@@ -15276,7 +15279,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="s">
         <v>391</v>
       </c>
@@ -15298,7 +15301,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="5" t="s">
         <v>392</v>
       </c>
@@ -15320,7 +15323,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="s">
         <v>393</v>
       </c>
@@ -15342,7 +15345,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="s">
         <v>394</v>
       </c>
@@ -15364,7 +15367,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="s">
         <v>395</v>
       </c>
@@ -15386,7 +15389,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="5" t="s">
         <v>396</v>
       </c>
@@ -15408,7 +15411,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="5" t="s">
         <v>397</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="s">
         <v>398</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="5" t="s">
         <v>399</v>
       </c>
@@ -15474,7 +15477,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="s">
         <v>400</v>
       </c>
@@ -15496,7 +15499,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="s">
         <v>401</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="s">
         <v>402</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="s">
         <v>403</v>
       </c>
@@ -15562,7 +15565,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="s">
         <v>404</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="s">
         <v>405</v>
       </c>
@@ -15606,7 +15609,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="s">
         <v>406</v>
       </c>
@@ -15628,7 +15631,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="s">
         <v>407</v>
       </c>
@@ -15650,7 +15653,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="s">
         <v>408</v>
       </c>
@@ -15672,7 +15675,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="s">
         <v>409</v>
       </c>
@@ -15694,7 +15697,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="5" t="s">
         <v>410</v>
       </c>
@@ -15716,7 +15719,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="s">
         <v>411</v>
       </c>
@@ -15738,7 +15741,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="s">
         <v>412</v>
       </c>
@@ -15760,7 +15763,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="s">
         <v>413</v>
       </c>
@@ -15782,7 +15785,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="s">
         <v>414</v>
       </c>
@@ -15804,7 +15807,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="s">
         <v>415</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="s">
         <v>416</v>
       </c>
@@ -15848,7 +15851,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="s">
         <v>417</v>
       </c>
@@ -15870,7 +15873,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="s">
         <v>418</v>
       </c>
@@ -15892,7 +15895,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="s">
         <v>419</v>
       </c>
@@ -15914,7 +15917,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="s">
         <v>420</v>
       </c>
@@ -15936,7 +15939,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="s">
         <v>421</v>
       </c>
@@ -15958,7 +15961,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="s">
         <v>422</v>
       </c>
@@ -15980,7 +15983,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="s">
         <v>423</v>
       </c>
@@ -16002,7 +16005,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="5" t="s">
         <v>424</v>
       </c>
@@ -16024,7 +16027,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="5" t="s">
         <v>425</v>
       </c>
@@ -16046,7 +16049,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="s">
         <v>426</v>
       </c>
@@ -16068,7 +16071,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="5" t="s">
         <v>427</v>
       </c>
@@ -16090,7 +16093,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="s">
         <v>428</v>
       </c>
@@ -16112,7 +16115,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="s">
         <v>429</v>
       </c>
@@ -16134,7 +16137,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="s">
         <v>430</v>
       </c>
@@ -16156,7 +16159,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="s">
         <v>431</v>
       </c>
@@ -16178,7 +16181,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="s">
         <v>432</v>
       </c>
@@ -16200,7 +16203,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="s">
         <v>433</v>
       </c>
@@ -16222,7 +16225,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="s">
         <v>434</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="s">
         <v>435</v>
       </c>
@@ -16266,7 +16269,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="s">
         <v>436</v>
       </c>
@@ -16288,7 +16291,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="s">
         <v>437</v>
       </c>
@@ -16310,7 +16313,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="s">
         <v>438</v>
       </c>
@@ -16332,7 +16335,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="5" t="s">
         <v>439</v>
       </c>
@@ -16354,7 +16357,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="5" t="s">
         <v>440</v>
       </c>
@@ -16376,7 +16379,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="s">
         <v>441</v>
       </c>
@@ -16398,7 +16401,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="s">
         <v>442</v>
       </c>
@@ -16420,7 +16423,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="5" t="s">
         <v>443</v>
       </c>
@@ -16442,7 +16445,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="s">
         <v>444</v>
       </c>
@@ -16464,7 +16467,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="s">
         <v>445</v>
       </c>
@@ -16486,7 +16489,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="s">
         <v>446</v>
       </c>
@@ -16508,7 +16511,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="s">
         <v>447</v>
       </c>
@@ -16530,7 +16533,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="s">
         <v>448</v>
       </c>
@@ -16552,7 +16555,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="s">
         <v>449</v>
       </c>
@@ -16574,7 +16577,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="s">
         <v>450</v>
       </c>
@@ -16596,7 +16599,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="s">
         <v>451</v>
       </c>
@@ -16618,7 +16621,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="s">
         <v>452</v>
       </c>
@@ -16640,7 +16643,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="s">
         <v>453</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="s">
         <v>454</v>
       </c>
@@ -16684,7 +16687,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="s">
         <v>455</v>
       </c>
@@ -16706,7 +16709,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="s">
         <v>456</v>
       </c>
@@ -16728,7 +16731,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="5" t="s">
         <v>457</v>
       </c>
@@ -16750,7 +16753,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="5" t="s">
         <v>458</v>
       </c>
@@ -16772,7 +16775,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="s">
         <v>459</v>
       </c>
@@ -16794,7 +16797,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="5" t="s">
         <v>460</v>
       </c>
@@ -16816,7 +16819,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="5" t="s">
         <v>461</v>
       </c>
@@ -16838,7 +16841,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="s">
         <v>462</v>
       </c>
@@ -16860,7 +16863,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="5" t="s">
         <v>463</v>
       </c>
@@ -16882,7 +16885,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="5" t="s">
         <v>464</v>
       </c>
@@ -16904,7 +16907,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="s">
         <v>465</v>
       </c>
@@ -16926,7 +16929,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="s">
         <v>466</v>
       </c>
@@ -16948,7 +16951,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="s">
         <v>467</v>
       </c>
@@ -16970,7 +16973,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="s">
         <v>468</v>
       </c>
@@ -16992,7 +16995,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="s">
         <v>469</v>
       </c>
@@ -17014,7 +17017,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="5" t="s">
         <v>470</v>
       </c>
@@ -17036,7 +17039,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="s">
         <v>471</v>
       </c>
@@ -17058,7 +17061,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="s">
         <v>472</v>
       </c>
@@ -17080,7 +17083,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="s">
         <v>473</v>
       </c>
@@ -17102,7 +17105,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="s">
         <v>474</v>
       </c>
@@ -17124,7 +17127,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="5" t="s">
         <v>475</v>
       </c>
@@ -17146,7 +17149,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="5" t="s">
         <v>476</v>
       </c>
@@ -17168,7 +17171,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="5" t="s">
         <v>477</v>
       </c>
@@ -17190,7 +17193,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="5" t="s">
         <v>478</v>
       </c>
@@ -17212,7 +17215,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="5" t="s">
         <v>479</v>
       </c>
@@ -17234,7 +17237,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="5" t="s">
         <v>480</v>
       </c>
@@ -17256,7 +17259,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="5" t="s">
         <v>481</v>
       </c>
@@ -17278,7 +17281,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="5" t="s">
         <v>482</v>
       </c>
@@ -17300,7 +17303,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="s">
         <v>483</v>
       </c>
@@ -17322,7 +17325,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="5" t="s">
         <v>484</v>
       </c>
@@ -17344,7 +17347,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="5" t="s">
         <v>485</v>
       </c>
@@ -17366,7 +17369,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="5" t="s">
         <v>486</v>
       </c>
@@ -17388,7 +17391,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="5" t="s">
         <v>487</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="5" t="s">
         <v>488</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="s">
         <v>489</v>
       </c>
@@ -17454,7 +17457,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="5" t="s">
         <v>490</v>
       </c>
@@ -17476,7 +17479,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="s">
         <v>491</v>
       </c>
@@ -17498,7 +17501,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="5" t="s">
         <v>492</v>
       </c>
@@ -17520,7 +17523,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="s">
         <v>493</v>
       </c>
@@ -17542,7 +17545,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="5" t="s">
         <v>494</v>
       </c>
@@ -17564,7 +17567,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="5" t="s">
         <v>495</v>
       </c>
@@ -17586,7 +17589,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="5" t="s">
         <v>496</v>
       </c>
@@ -17608,7 +17611,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="5" t="s">
         <v>497</v>
       </c>
@@ -17630,7 +17633,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="5" t="s">
         <v>498</v>
       </c>
@@ -17652,7 +17655,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="5" t="s">
         <v>499</v>
       </c>
@@ -17674,7 +17677,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="5" t="s">
         <v>500</v>
       </c>
@@ -17696,7 +17699,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="5" t="s">
         <v>501</v>
       </c>
@@ -17718,7 +17721,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="5" t="s">
         <v>502</v>
       </c>
@@ -17740,7 +17743,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="5" t="s">
         <v>503</v>
       </c>
@@ -17762,7 +17765,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="5" t="s">
         <v>504</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="5" t="s">
         <v>505</v>
       </c>
@@ -17806,7 +17809,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="5" t="s">
         <v>506</v>
       </c>
@@ -17828,7 +17831,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="5" t="s">
         <v>507</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="5" t="s">
         <v>508</v>
       </c>
@@ -17872,7 +17875,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="5" t="s">
         <v>509</v>
       </c>
@@ -17894,7 +17897,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="5" t="s">
         <v>510</v>
       </c>
@@ -17916,7 +17919,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="5" t="s">
         <v>511</v>
       </c>
@@ -17938,7 +17941,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="5" t="s">
         <v>512</v>
       </c>
@@ -17960,7 +17963,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="5" t="s">
         <v>513</v>
       </c>
@@ -17982,7 +17985,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="5" t="s">
         <v>514</v>
       </c>
@@ -18004,7 +18007,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="5" t="s">
         <v>515</v>
       </c>
@@ -18026,7 +18029,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="5" t="s">
         <v>516</v>
       </c>
@@ -18048,7 +18051,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="5" t="s">
         <v>517</v>
       </c>
@@ -18070,7 +18073,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="5" t="s">
         <v>518</v>
       </c>
@@ -18092,7 +18095,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="5" t="s">
         <v>519</v>
       </c>
@@ -18114,7 +18117,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="5" t="s">
         <v>520</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="5" t="s">
         <v>521</v>
       </c>
@@ -18158,7 +18161,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="5" t="s">
         <v>522</v>
       </c>
@@ -18180,7 +18183,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="5" t="s">
         <v>523</v>
       </c>
@@ -18202,7 +18205,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="5" t="s">
         <v>524</v>
       </c>
@@ -18224,7 +18227,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="5" t="s">
         <v>525</v>
       </c>
@@ -18246,7 +18249,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="5" t="s">
         <v>526</v>
       </c>
@@ -18268,7 +18271,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="5" t="s">
         <v>527</v>
       </c>
@@ -18290,7 +18293,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="5" t="s">
         <v>528</v>
       </c>
@@ -18312,7 +18315,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="s">
         <v>529</v>
       </c>
@@ -18334,7 +18337,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="5" t="s">
         <v>530</v>
       </c>
@@ -18356,7 +18359,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="5" t="s">
         <v>531</v>
       </c>
@@ -18378,7 +18381,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="5" t="s">
         <v>532</v>
       </c>
@@ -18400,7 +18403,7 @@
         <v>43968</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="5" t="s">
         <v>533</v>
       </c>
@@ -18422,7 +18425,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="5" t="s">
         <v>534</v>
       </c>
@@ -18444,7 +18447,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="5" t="s">
         <v>535</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="5" t="s">
         <v>536</v>
       </c>
@@ -18488,7 +18491,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="5" t="s">
         <v>537</v>
       </c>
@@ -18510,7 +18513,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="5" t="s">
         <v>538</v>
       </c>
@@ -18532,7 +18535,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="5" t="s">
         <v>539</v>
       </c>
@@ -18554,7 +18557,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="5" t="s">
         <v>540</v>
       </c>
@@ -18576,7 +18579,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="5" t="s">
         <v>541</v>
       </c>
@@ -18598,7 +18601,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="5" t="s">
         <v>542</v>
       </c>
@@ -18620,7 +18623,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="5" t="s">
         <v>543</v>
       </c>
@@ -18642,7 +18645,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="5" t="s">
         <v>544</v>
       </c>
@@ -18664,7 +18667,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="5" t="s">
         <v>545</v>
       </c>
@@ -18686,7 +18689,7 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="5" t="s">
         <v>546</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="5" t="s">
         <v>547</v>
       </c>
@@ -18730,7 +18733,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="5" t="s">
         <v>548</v>
       </c>
@@ -18752,7 +18755,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="5" t="s">
         <v>549</v>
       </c>
@@ -18774,7 +18777,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="5" t="s">
         <v>550</v>
       </c>
@@ -18796,7 +18799,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="5" t="s">
         <v>551</v>
       </c>
@@ -18818,7 +18821,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="5" t="s">
         <v>552</v>
       </c>
@@ -18840,7 +18843,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="5" t="s">
         <v>553</v>
       </c>
@@ -18862,7 +18865,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="5" t="s">
         <v>554</v>
       </c>
@@ -18884,7 +18887,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="5" t="s">
         <v>555</v>
       </c>
@@ -18906,7 +18909,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="5" t="s">
         <v>556</v>
       </c>
@@ -18928,7 +18931,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="5" t="s">
         <v>557</v>
       </c>
@@ -18950,7 +18953,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="5" t="s">
         <v>558</v>
       </c>
@@ -18972,7 +18975,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="5" t="s">
         <v>559</v>
       </c>
@@ -18994,7 +18997,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="5" t="s">
         <v>560</v>
       </c>
@@ -19016,7 +19019,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="5" t="s">
         <v>561</v>
       </c>
@@ -19038,7 +19041,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="5" t="s">
         <v>562</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="5" t="s">
         <v>563</v>
       </c>
@@ -19082,7 +19085,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="5" t="s">
         <v>564</v>
       </c>
@@ -19104,7 +19107,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="5" t="s">
         <v>565</v>
       </c>
@@ -19126,7 +19129,7 @@
         <v>44046</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="5" t="s">
         <v>566</v>
       </c>
@@ -19148,7 +19151,7 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="5" t="s">
         <v>567</v>
       </c>
@@ -19170,7 +19173,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="5" t="s">
         <v>568</v>
       </c>
@@ -19192,7 +19195,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="5" t="s">
         <v>569</v>
       </c>
@@ -19214,7 +19217,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="5" t="s">
         <v>570</v>
       </c>
@@ -19236,7 +19239,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="5" t="s">
         <v>571</v>
       </c>
@@ -19258,7 +19261,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="5" t="s">
         <v>572</v>
       </c>
@@ -19280,7 +19283,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="5" t="s">
         <v>573</v>
       </c>
@@ -19302,7 +19305,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="5" t="s">
         <v>574</v>
       </c>
@@ -19324,7 +19327,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="5" t="s">
         <v>575</v>
       </c>
@@ -19346,7 +19349,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="5" t="s">
         <v>576</v>
       </c>
@@ -19368,7 +19371,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="5" t="s">
         <v>577</v>
       </c>
@@ -19390,7 +19393,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="5" t="s">
         <v>578</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>43947</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="5" t="s">
         <v>579</v>
       </c>
@@ -19434,7 +19437,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="5" t="s">
         <v>580</v>
       </c>
@@ -19456,7 +19459,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="5" t="s">
         <v>581</v>
       </c>
@@ -19478,7 +19481,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="5" t="s">
         <v>582</v>
       </c>
@@ -19500,7 +19503,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="5" t="s">
         <v>583</v>
       </c>
@@ -19522,7 +19525,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="5" t="s">
         <v>584</v>
       </c>
@@ -19544,7 +19547,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="5" t="s">
         <v>585</v>
       </c>
@@ -19566,7 +19569,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="5" t="s">
         <v>586</v>
       </c>
@@ -19588,7 +19591,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="5">
         <v>25899</v>
       </c>
@@ -19610,7 +19613,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="5" t="s">
         <v>587</v>
       </c>
@@ -19632,7 +19635,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="5" t="s">
         <v>588</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="5" t="s">
         <v>589</v>
       </c>
@@ -19676,7 +19679,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="5" t="s">
         <v>590</v>
       </c>
@@ -19698,7 +19701,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="5" t="s">
         <v>591</v>
       </c>
@@ -19720,7 +19723,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="5" t="s">
         <v>592</v>
       </c>
@@ -19742,7 +19745,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="5" t="s">
         <v>593</v>
       </c>
@@ -19764,7 +19767,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="5" t="s">
         <v>594</v>
       </c>
@@ -19786,7 +19789,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="5" t="s">
         <v>595</v>
       </c>
@@ -19808,7 +19811,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="5" t="s">
         <v>596</v>
       </c>
@@ -19830,7 +19833,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="5" t="s">
         <v>597</v>
       </c>
@@ -19852,7 +19855,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="5" t="s">
         <v>598</v>
       </c>
@@ -19874,7 +19877,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="5" t="s">
         <v>599</v>
       </c>
@@ -19896,7 +19899,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="5" t="s">
         <v>600</v>
       </c>
@@ -19918,7 +19921,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="5" t="s">
         <v>601</v>
       </c>
@@ -19940,7 +19943,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="5" t="s">
         <v>602</v>
       </c>
@@ -19962,7 +19965,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="5" t="s">
         <v>603</v>
       </c>
@@ -19984,7 +19987,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="5" t="s">
         <v>604</v>
       </c>
@@ -20006,7 +20009,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="5" t="s">
         <v>605</v>
       </c>
@@ -20028,7 +20031,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="5" t="s">
         <v>606</v>
       </c>
@@ -20050,7 +20053,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="5" t="s">
         <v>607</v>
       </c>
@@ -20072,7 +20075,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="5" t="s">
         <v>608</v>
       </c>
@@ -20094,7 +20097,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="5" t="s">
         <v>609</v>
       </c>
@@ -20116,7 +20119,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="5" t="s">
         <v>610</v>
       </c>
@@ -20138,7 +20141,7 @@
         <v>43932</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="5" t="s">
         <v>611</v>
       </c>
@@ -20160,7 +20163,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="5" t="s">
         <v>612</v>
       </c>
@@ -20182,7 +20185,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="5" t="s">
         <v>613</v>
       </c>
@@ -20204,7 +20207,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="5" t="s">
         <v>614</v>
       </c>
@@ -20226,7 +20229,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="5" t="s">
         <v>615</v>
       </c>
@@ -20248,7 +20251,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="5" t="s">
         <v>616</v>
       </c>
@@ -20270,7 +20273,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="5" t="s">
         <v>617</v>
       </c>
@@ -20292,7 +20295,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="5" t="s">
         <v>618</v>
       </c>
@@ -20314,7 +20317,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="5" t="s">
         <v>619</v>
       </c>
@@ -20336,7 +20339,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="5" t="s">
         <v>620</v>
       </c>
@@ -20358,7 +20361,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="5" t="s">
         <v>621</v>
       </c>
@@ -20380,7 +20383,7 @@
         <v>43953</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="5" t="s">
         <v>622</v>
       </c>
@@ -20402,7 +20405,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="5" t="s">
         <v>623</v>
       </c>
@@ -20424,7 +20427,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="5" t="s">
         <v>624</v>
       </c>
@@ -20446,7 +20449,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="5" t="s">
         <v>625</v>
       </c>
@@ -20468,7 +20471,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="5" t="s">
         <v>626</v>
       </c>
@@ -20490,7 +20493,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="5" t="s">
         <v>627</v>
       </c>
@@ -20512,7 +20515,7 @@
         <v>43982</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="5" t="s">
         <v>628</v>
       </c>
@@ -20534,7 +20537,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="5" t="s">
         <v>629</v>
       </c>
@@ -20556,7 +20559,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="5" t="s">
         <v>630</v>
       </c>
@@ -20578,7 +20581,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="5" t="s">
         <v>631</v>
       </c>
@@ -20600,7 +20603,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="5" t="s">
         <v>632</v>
       </c>
@@ -20622,7 +20625,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="5" t="s">
         <v>633</v>
       </c>
@@ -20644,7 +20647,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="5" t="s">
         <v>634</v>
       </c>
@@ -20666,7 +20669,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="5" t="s">
         <v>635</v>
       </c>
@@ -20688,7 +20691,7 @@
         <v>43960</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="5" t="s">
         <v>636</v>
       </c>
@@ -20710,7 +20713,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="5" t="s">
         <v>637</v>
       </c>
@@ -20732,7 +20735,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="5" t="s">
         <v>638</v>
       </c>
@@ -20754,7 +20757,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="5" t="s">
         <v>639</v>
       </c>
@@ -20776,7 +20779,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="5" t="s">
         <v>640</v>
       </c>
@@ -20798,7 +20801,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="5" t="s">
         <v>641</v>
       </c>
@@ -20820,7 +20823,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="5" t="s">
         <v>642</v>
       </c>
@@ -20842,7 +20845,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="5" t="s">
         <v>643</v>
       </c>
@@ -20864,7 +20867,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="5" t="s">
         <v>644</v>
       </c>
@@ -20886,7 +20889,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="5" t="s">
         <v>645</v>
       </c>
@@ -20908,7 +20911,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="5" t="s">
         <v>646</v>
       </c>
@@ -20930,7 +20933,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="5" t="s">
         <v>647</v>
       </c>
@@ -20952,7 +20955,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="5" t="s">
         <v>648</v>
       </c>
@@ -20974,7 +20977,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="5" t="s">
         <v>649</v>
       </c>
@@ -20996,7 +20999,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="5" t="s">
         <v>650</v>
       </c>
@@ -21018,7 +21021,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="5" t="s">
         <v>651</v>
       </c>
@@ -21040,7 +21043,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="5" t="s">
         <v>652</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="5" t="s">
         <v>653</v>
       </c>
@@ -21084,7 +21087,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="5" t="s">
         <v>654</v>
       </c>
@@ -21106,7 +21109,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="5" t="s">
         <v>655</v>
       </c>
@@ -21128,7 +21131,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="5" t="s">
         <v>656</v>
       </c>
@@ -21150,7 +21153,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="5" t="s">
         <v>657</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="5" t="s">
         <v>658</v>
       </c>
@@ -21194,7 +21197,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="5" t="s">
         <v>659</v>
       </c>
@@ -21216,7 +21219,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="5" t="s">
         <v>660</v>
       </c>
@@ -21238,7 +21241,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="5" t="s">
         <v>661</v>
       </c>
@@ -21260,7 +21263,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="5" t="s">
         <v>662</v>
       </c>
@@ -21282,7 +21285,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="5" t="s">
         <v>663</v>
       </c>
@@ -21304,7 +21307,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="5" t="s">
         <v>664</v>
       </c>
@@ -21326,7 +21329,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="5" t="s">
         <v>665</v>
       </c>
@@ -21348,7 +21351,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="5" t="s">
         <v>666</v>
       </c>
@@ -21370,7 +21373,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="5" t="s">
         <v>667</v>
       </c>
@@ -21392,7 +21395,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="5" t="s">
         <v>668</v>
       </c>
@@ -21414,7 +21417,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="5" t="s">
         <v>669</v>
       </c>
@@ -21436,7 +21439,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="5" t="s">
         <v>670</v>
       </c>
@@ -21458,7 +21461,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="5" t="s">
         <v>671</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="5" t="s">
         <v>672</v>
       </c>
@@ -21502,7 +21505,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="5" t="s">
         <v>673</v>
       </c>
@@ -21524,7 +21527,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="5" t="s">
         <v>674</v>
       </c>
@@ -21546,7 +21549,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="5" t="s">
         <v>675</v>
       </c>
@@ -21568,7 +21571,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="5" t="s">
         <v>676</v>
       </c>
@@ -21590,7 +21593,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="5" t="s">
         <v>677</v>
       </c>
@@ -21612,7 +21615,7 @@
         <v>43919</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="5" t="s">
         <v>678</v>
       </c>
@@ -21634,7 +21637,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="5" t="s">
         <v>679</v>
       </c>
@@ -21656,7 +21659,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="5" t="s">
         <v>680</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="5" t="s">
         <v>681</v>
       </c>
@@ -21700,7 +21703,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="5" t="s">
         <v>682</v>
       </c>
@@ -21722,7 +21725,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="5" t="s">
         <v>683</v>
       </c>
@@ -21744,7 +21747,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="5" t="s">
         <v>684</v>
       </c>
@@ -21766,7 +21769,7 @@
         <v>44068</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="5" t="s">
         <v>685</v>
       </c>
@@ -21788,7 +21791,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="5" t="s">
         <v>686</v>
       </c>
@@ -21810,7 +21813,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="5" t="s">
         <v>687</v>
       </c>
@@ -21832,7 +21835,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="5" t="s">
         <v>688</v>
       </c>
@@ -21854,7 +21857,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="5" t="s">
         <v>689</v>
       </c>
@@ -21876,7 +21879,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="5" t="s">
         <v>690</v>
       </c>
@@ -21898,7 +21901,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="5" t="s">
         <v>691</v>
       </c>
@@ -21920,7 +21923,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="5" t="s">
         <v>692</v>
       </c>
@@ -21942,7 +21945,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="5" t="s">
         <v>693</v>
       </c>
@@ -21964,7 +21967,7 @@
         <v>44052</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="5" t="s">
         <v>694</v>
       </c>
@@ -21986,7 +21989,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="5" t="s">
         <v>695</v>
       </c>
@@ -22008,7 +22011,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="5">
         <v>50577</v>
       </c>
@@ -22030,7 +22033,7 @@
         <v>44065</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="5" t="s">
         <v>696</v>
       </c>
@@ -22052,7 +22055,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="5" t="s">
         <v>697</v>
       </c>
@@ -22074,7 +22077,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="5" t="s">
         <v>698</v>
       </c>
@@ -22096,7 +22099,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="5" t="s">
         <v>699</v>
       </c>
@@ -22118,7 +22121,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="5" t="s">
         <v>700</v>
       </c>
@@ -22140,7 +22143,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="5" t="s">
         <v>701</v>
       </c>
@@ -22162,7 +22165,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="5" t="s">
         <v>702</v>
       </c>
@@ -22184,7 +22187,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="5" t="s">
         <v>703</v>
       </c>
@@ -22206,7 +22209,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="5" t="s">
         <v>704</v>
       </c>
@@ -22228,7 +22231,7 @@
         <v>43975</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="5" t="s">
         <v>705</v>
       </c>
@@ -22250,7 +22253,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="5" t="s">
         <v>706</v>
       </c>
@@ -22272,7 +22275,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="5" t="s">
         <v>707</v>
       </c>
@@ -22294,7 +22297,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="5" t="s">
         <v>708</v>
       </c>
@@ -22316,7 +22319,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="5" t="s">
         <v>709</v>
       </c>
@@ -22338,7 +22341,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="5" t="s">
         <v>710</v>
       </c>
@@ -22360,7 +22363,7 @@
         <v>43981</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="5" t="s">
         <v>711</v>
       </c>
@@ -22382,7 +22385,7 @@
         <v>44003</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="5" t="s">
         <v>712</v>
       </c>
@@ -22404,7 +22407,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="5" t="s">
         <v>713</v>
       </c>
@@ -22426,7 +22429,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="5" t="s">
         <v>714</v>
       </c>
@@ -22448,7 +22451,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="5" t="s">
         <v>715</v>
       </c>
@@ -22470,7 +22473,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="5" t="s">
         <v>716</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="5" t="s">
         <v>717</v>
       </c>
@@ -22514,7 +22517,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="5" t="s">
         <v>718</v>
       </c>
@@ -22536,7 +22539,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="5" t="s">
         <v>719</v>
       </c>
@@ -22558,7 +22561,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="5" t="s">
         <v>720</v>
       </c>
@@ -22580,7 +22583,7 @@
         <v>44064</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="5" t="s">
         <v>721</v>
       </c>
@@ -22602,7 +22605,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="5" t="s">
         <v>722</v>
       </c>
@@ -22624,7 +22627,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="5" t="s">
         <v>723</v>
       </c>
@@ -22646,7 +22649,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="5" t="s">
         <v>724</v>
       </c>
@@ -22668,7 +22671,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="5" t="s">
         <v>725</v>
       </c>
@@ -22690,7 +22693,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="5" t="s">
         <v>726</v>
       </c>
@@ -22712,7 +22715,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="5" t="s">
         <v>727</v>
       </c>
@@ -22734,7 +22737,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="5" t="s">
         <v>728</v>
       </c>
@@ -22756,7 +22759,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="5" t="s">
         <v>729</v>
       </c>
@@ -22778,7 +22781,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="5" t="s">
         <v>730</v>
       </c>
@@ -22800,7 +22803,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="5" t="s">
         <v>731</v>
       </c>
@@ -22822,7 +22825,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="5" t="s">
         <v>732</v>
       </c>
@@ -22844,7 +22847,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="5" t="s">
         <v>733</v>
       </c>
@@ -22866,7 +22869,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="5" t="s">
         <v>734</v>
       </c>
@@ -22888,7 +22891,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="5" t="s">
         <v>735</v>
       </c>
@@ -22910,7 +22913,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="5" t="s">
         <v>736</v>
       </c>
@@ -22932,7 +22935,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="5" t="s">
         <v>737</v>
       </c>
@@ -22954,7 +22957,7 @@
         <v>43945</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="5" t="s">
         <v>738</v>
       </c>
@@ -22976,7 +22979,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="5" t="s">
         <v>739</v>
       </c>
@@ -22998,7 +23001,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="5" t="s">
         <v>740</v>
       </c>
@@ -23020,7 +23023,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="5" t="s">
         <v>741</v>
       </c>
@@ -23042,7 +23045,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="5" t="s">
         <v>742</v>
       </c>
@@ -23064,7 +23067,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="5" t="s">
         <v>743</v>
       </c>
@@ -23086,7 +23089,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="5" t="s">
         <v>744</v>
       </c>
@@ -23108,7 +23111,7 @@
         <v>44053</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="5" t="s">
         <v>745</v>
       </c>
@@ -23130,7 +23133,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="5" t="s">
         <v>746</v>
       </c>
@@ -23152,7 +23155,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="5" t="s">
         <v>747</v>
       </c>
@@ -23174,7 +23177,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="5" t="s">
         <v>748</v>
       </c>
@@ -23196,7 +23199,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="5" t="s">
         <v>749</v>
       </c>
@@ -23218,7 +23221,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="5" t="s">
         <v>750</v>
       </c>
@@ -23240,7 +23243,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="5" t="s">
         <v>751</v>
       </c>
@@ -23262,7 +23265,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="5" t="s">
         <v>752</v>
       </c>
@@ -23284,7 +23287,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="5" t="s">
         <v>753</v>
       </c>
@@ -23306,7 +23309,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="5" t="s">
         <v>754</v>
       </c>
@@ -23328,7 +23331,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="5">
         <v>52693</v>
       </c>
@@ -23350,7 +23353,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="5" t="s">
         <v>755</v>
       </c>
@@ -23372,7 +23375,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="5" t="s">
         <v>756</v>
       </c>
@@ -23394,7 +23397,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="5" t="s">
         <v>757</v>
       </c>
@@ -23416,7 +23419,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="5" t="s">
         <v>758</v>
       </c>
@@ -23438,7 +23441,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="5" t="s">
         <v>759</v>
       </c>
@@ -23460,7 +23463,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="5" t="s">
         <v>760</v>
       </c>
@@ -23482,7 +23485,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="5" t="s">
         <v>761</v>
       </c>
@@ -23504,7 +23507,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="5" t="s">
         <v>762</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="5" t="s">
         <v>763</v>
       </c>
@@ -23548,7 +23551,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="5" t="s">
         <v>764</v>
       </c>
@@ -23570,7 +23573,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="5" t="s">
         <v>765</v>
       </c>
@@ -23592,7 +23595,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="5" t="s">
         <v>766</v>
       </c>
@@ -23614,7 +23617,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="5" t="s">
         <v>767</v>
       </c>
@@ -23636,7 +23639,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="5" t="s">
         <v>768</v>
       </c>
@@ -23658,7 +23661,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="5" t="s">
         <v>769</v>
       </c>
@@ -23680,7 +23683,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="5" t="s">
         <v>770</v>
       </c>
@@ -23702,7 +23705,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="5" t="s">
         <v>771</v>
       </c>
@@ -23724,7 +23727,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="5" t="s">
         <v>772</v>
       </c>
@@ -23746,7 +23749,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="5" t="s">
         <v>773</v>
       </c>
@@ -23768,7 +23771,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="5" t="s">
         <v>774</v>
       </c>
@@ -23790,7 +23793,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="5" t="s">
         <v>775</v>
       </c>
@@ -23812,7 +23815,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="5" t="s">
         <v>776</v>
       </c>
@@ -23834,7 +23837,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="5" t="s">
         <v>777</v>
       </c>
@@ -23856,7 +23859,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="5" t="s">
         <v>778</v>
       </c>
@@ -23878,7 +23881,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="5" t="s">
         <v>779</v>
       </c>
@@ -23900,7 +23903,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="5" t="s">
         <v>780</v>
       </c>
@@ -23922,7 +23925,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="5" t="s">
         <v>781</v>
       </c>
@@ -23944,7 +23947,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="5" t="s">
         <v>782</v>
       </c>
@@ -23966,7 +23969,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="5" t="s">
         <v>783</v>
       </c>
@@ -23988,7 +23991,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="5" t="s">
         <v>784</v>
       </c>
@@ -24010,7 +24013,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="5" t="s">
         <v>785</v>
       </c>
@@ -24032,7 +24035,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="5" t="s">
         <v>786</v>
       </c>
@@ -24054,7 +24057,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="5" t="s">
         <v>787</v>
       </c>
@@ -24076,7 +24079,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="5" t="s">
         <v>788</v>
       </c>
@@ -24098,7 +24101,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="5" t="s">
         <v>789</v>
       </c>
@@ -24120,7 +24123,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="5" t="s">
         <v>790</v>
       </c>
@@ -24142,7 +24145,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="5" t="s">
         <v>791</v>
       </c>
@@ -24164,7 +24167,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="5" t="s">
         <v>792</v>
       </c>
@@ -24186,7 +24189,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="5" t="s">
         <v>793</v>
       </c>
@@ -24208,7 +24211,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="5" t="s">
         <v>794</v>
       </c>
@@ -24230,7 +24233,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="5" t="s">
         <v>795</v>
       </c>
@@ -24252,7 +24255,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="5" t="s">
         <v>796</v>
       </c>
@@ -24274,7 +24277,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="5" t="s">
         <v>797</v>
       </c>
@@ -24296,7 +24299,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="5" t="s">
         <v>798</v>
       </c>
@@ -24318,7 +24321,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="5" t="s">
         <v>799</v>
       </c>
@@ -24340,7 +24343,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="5" t="s">
         <v>800</v>
       </c>
@@ -24362,7 +24365,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="5" t="s">
         <v>801</v>
       </c>
@@ -24384,7 +24387,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="5" t="s">
         <v>802</v>
       </c>
@@ -24406,7 +24409,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="5" t="s">
         <v>803</v>
       </c>
@@ -24428,7 +24431,7 @@
         <v>43904</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="5" t="s">
         <v>804</v>
       </c>
@@ -24450,7 +24453,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="5" t="s">
         <v>805</v>
       </c>
@@ -24472,7 +24475,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="5" t="s">
         <v>806</v>
       </c>
@@ -24494,7 +24497,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="5" t="s">
         <v>807</v>
       </c>
@@ -24516,7 +24519,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="5" t="s">
         <v>808</v>
       </c>
@@ -24538,7 +24541,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="5" t="s">
         <v>809</v>
       </c>
@@ -24560,7 +24563,7 @@
         <v>43936</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="5" t="s">
         <v>810</v>
       </c>
@@ -24582,7 +24585,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="5" t="s">
         <v>811</v>
       </c>
@@ -24604,7 +24607,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="5" t="s">
         <v>812</v>
       </c>
@@ -24626,7 +24629,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="5" t="s">
         <v>813</v>
       </c>
@@ -24648,7 +24651,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="5" t="s">
         <v>814</v>
       </c>
@@ -24670,7 +24673,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="5" t="s">
         <v>815</v>
       </c>
@@ -24692,7 +24695,7 @@
         <v>44009</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="5" t="s">
         <v>816</v>
       </c>
@@ -24714,7 +24717,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="5" t="s">
         <v>817</v>
       </c>
@@ -24736,7 +24739,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="5" t="s">
         <v>818</v>
       </c>
@@ -24758,7 +24761,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="5" t="s">
         <v>819</v>
       </c>
@@ -24780,7 +24783,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="5" t="s">
         <v>820</v>
       </c>
@@ -24802,7 +24805,7 @@
         <v>43950</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="5" t="s">
         <v>821</v>
       </c>
@@ -24824,7 +24827,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="5" t="s">
         <v>822</v>
       </c>
@@ -24846,7 +24849,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="5" t="s">
         <v>823</v>
       </c>
@@ -24868,7 +24871,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="5" t="s">
         <v>824</v>
       </c>
@@ -24890,7 +24893,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="5" t="s">
         <v>825</v>
       </c>
@@ -24912,7 +24915,7 @@
         <v>44048</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="5" t="s">
         <v>826</v>
       </c>
@@ -24934,7 +24937,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="5" t="s">
         <v>827</v>
       </c>
@@ -24956,7 +24959,7 @@
         <v>44021</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="5" t="s">
         <v>828</v>
       </c>
@@ -24978,7 +24981,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="5" t="s">
         <v>829</v>
       </c>
@@ -25000,7 +25003,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="5" t="s">
         <v>830</v>
       </c>
@@ -25022,7 +25025,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="5" t="s">
         <v>831</v>
       </c>
@@ -25044,7 +25047,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="5" t="s">
         <v>832</v>
       </c>
@@ -25066,7 +25069,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="5" t="s">
         <v>833</v>
       </c>
@@ -25088,7 +25091,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="5" t="s">
         <v>834</v>
       </c>
@@ -25110,7 +25113,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="5" t="s">
         <v>835</v>
       </c>
@@ -25132,7 +25135,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="5" t="s">
         <v>836</v>
       </c>
@@ -25154,7 +25157,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="5" t="s">
         <v>837</v>
       </c>
@@ -25176,7 +25179,7 @@
         <v>44047</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="5" t="s">
         <v>838</v>
       </c>
@@ -25198,7 +25201,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="5" t="s">
         <v>839</v>
       </c>
@@ -25220,7 +25223,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="5" t="s">
         <v>840</v>
       </c>
@@ -25242,7 +25245,7 @@
         <v>43911</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="5" t="s">
         <v>841</v>
       </c>
@@ -25264,7 +25267,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="5" t="s">
         <v>842</v>
       </c>
@@ -25286,7 +25289,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="5" t="s">
         <v>843</v>
       </c>
@@ -25308,7 +25311,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="5" t="s">
         <v>844</v>
       </c>
@@ -25330,7 +25333,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="5" t="s">
         <v>845</v>
       </c>
@@ -25352,7 +25355,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="5" t="s">
         <v>846</v>
       </c>
@@ -25374,7 +25377,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" s="5" t="s">
         <v>847</v>
       </c>
@@ -25396,7 +25399,7 @@
         <v>43974</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" s="5" t="s">
         <v>848</v>
       </c>
@@ -25418,7 +25421,7 @@
         <v>43996</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" s="5" t="s">
         <v>849</v>
       </c>
@@ -25440,7 +25443,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" s="5" t="s">
         <v>850</v>
       </c>
@@ -25462,7 +25465,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" s="5" t="s">
         <v>851</v>
       </c>
@@ -25484,7 +25487,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" s="5" t="s">
         <v>852</v>
       </c>
@@ -25506,7 +25509,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" s="5" t="s">
         <v>853</v>
       </c>
@@ -25528,7 +25531,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" s="5" t="s">
         <v>854</v>
       </c>
@@ -25550,7 +25553,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" s="5" t="s">
         <v>855</v>
       </c>
@@ -25572,7 +25575,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" s="5" t="s">
         <v>856</v>
       </c>
@@ -25594,7 +25597,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" s="5" t="s">
         <v>857</v>
       </c>
@@ -25616,7 +25619,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" s="5" t="s">
         <v>858</v>
       </c>
@@ -25638,7 +25641,7 @@
         <v>44038</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" s="5" t="s">
         <v>859</v>
       </c>
@@ -25660,7 +25663,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" s="5" t="s">
         <v>860</v>
       </c>
@@ -25682,7 +25685,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" s="5" t="s">
         <v>861</v>
       </c>
@@ -25704,7 +25707,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" s="5" t="s">
         <v>862</v>
       </c>
@@ -25726,7 +25729,7 @@
         <v>44023</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" s="5" t="s">
         <v>863</v>
       </c>
@@ -25748,7 +25751,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" s="5" t="s">
         <v>864</v>
       </c>
@@ -25770,7 +25773,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" s="5" t="s">
         <v>865</v>
       </c>
@@ -25792,7 +25795,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" s="5" t="s">
         <v>866</v>
       </c>
@@ -25814,7 +25817,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" s="5" t="s">
         <v>867</v>
       </c>
@@ -25836,7 +25839,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" s="5" t="s">
         <v>868</v>
       </c>
@@ -25858,7 +25861,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" s="5" t="s">
         <v>869</v>
       </c>
@@ -25880,7 +25883,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" s="5" t="s">
         <v>870</v>
       </c>
@@ -25902,7 +25905,7 @@
         <v>44057</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" s="5" t="s">
         <v>871</v>
       </c>
@@ -25924,7 +25927,7 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" s="5" t="s">
         <v>872</v>
       </c>
@@ -25946,7 +25949,7 @@
         <v>44051</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" s="5" t="s">
         <v>873</v>
       </c>
@@ -25968,7 +25971,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" s="5" t="s">
         <v>874</v>
       </c>
@@ -25990,7 +25993,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" s="5" t="s">
         <v>875</v>
       </c>
@@ -26012,7 +26015,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" s="5" t="s">
         <v>876</v>
       </c>
@@ -26034,7 +26037,7 @@
         <v>43946</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" s="5" t="s">
         <v>877</v>
       </c>
@@ -26056,7 +26059,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" s="5" t="s">
         <v>878</v>
       </c>
@@ -26078,7 +26081,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" s="5" t="s">
         <v>879</v>
       </c>
@@ -26100,7 +26103,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" s="5" t="s">
         <v>880</v>
       </c>
@@ -26122,7 +26125,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" s="5" t="s">
         <v>881</v>
       </c>
@@ -26144,7 +26147,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" s="5" t="s">
         <v>882</v>
       </c>
@@ -26166,7 +26169,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" s="5" t="s">
         <v>883</v>
       </c>
@@ -26188,7 +26191,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" s="5" t="s">
         <v>884</v>
       </c>
@@ -26210,7 +26213,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" s="5" t="s">
         <v>885</v>
       </c>
@@ -26232,7 +26235,7 @@
         <v>43966</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" s="5" t="s">
         <v>886</v>
       </c>
@@ -26254,7 +26257,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" s="5" t="s">
         <v>887</v>
       </c>
@@ -26276,7 +26279,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" s="5" t="s">
         <v>888</v>
       </c>
@@ -26298,7 +26301,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" s="5" t="s">
         <v>889</v>
       </c>
@@ -26320,7 +26323,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" s="5" t="s">
         <v>890</v>
       </c>
@@ -26342,7 +26345,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" s="5" t="s">
         <v>891</v>
       </c>
@@ -26364,7 +26367,7 @@
         <v>44041</v>
       </c>
     </row>
-    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" s="5" t="s">
         <v>892</v>
       </c>
@@ -26386,7 +26389,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" s="5" t="s">
         <v>893</v>
       </c>
@@ -26408,7 +26411,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" s="5" t="s">
         <v>894</v>
       </c>
@@ -26430,7 +26433,7 @@
         <v>44025</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" s="5" t="s">
         <v>895</v>
       </c>
@@ -26452,7 +26455,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" s="5" t="s">
         <v>896</v>
       </c>
@@ -26474,7 +26477,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" s="5" t="s">
         <v>897</v>
       </c>
@@ -26496,7 +26499,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" s="5" t="s">
         <v>898</v>
       </c>
@@ -26518,7 +26521,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" s="5" t="s">
         <v>899</v>
       </c>
@@ -26540,7 +26543,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" s="5" t="s">
         <v>900</v>
       </c>
@@ -26562,7 +26565,7 @@
         <v>44002</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" s="5" t="s">
         <v>901</v>
       </c>
@@ -26584,7 +26587,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" s="5" t="s">
         <v>902</v>
       </c>
@@ -26606,7 +26609,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" s="5" t="s">
         <v>903</v>
       </c>
@@ -26628,7 +26631,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" s="5" t="s">
         <v>904</v>
       </c>
@@ -26650,7 +26653,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" s="5" t="s">
         <v>905</v>
       </c>
@@ -26672,7 +26675,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" s="5" t="s">
         <v>906</v>
       </c>
@@ -26694,7 +26697,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" s="5" t="s">
         <v>907</v>
       </c>
@@ -26716,7 +26719,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" s="5" t="s">
         <v>908</v>
       </c>
@@ -26738,7 +26741,7 @@
         <v>44049</v>
       </c>
     </row>
-    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" s="5" t="s">
         <v>909</v>
       </c>
@@ -26760,7 +26763,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" s="5" t="s">
         <v>910</v>
       </c>
@@ -26782,7 +26785,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" s="5" t="s">
         <v>911</v>
       </c>
@@ -26804,7 +26807,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" s="5" t="s">
         <v>912</v>
       </c>
@@ -26826,7 +26829,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" s="5" t="s">
         <v>913</v>
       </c>
@@ -26848,7 +26851,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" s="5" t="s">
         <v>914</v>
       </c>
@@ -26870,7 +26873,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" s="5" t="s">
         <v>915</v>
       </c>
@@ -26892,7 +26895,7 @@
         <v>44017</v>
       </c>
     </row>
-    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" s="5" t="s">
         <v>916</v>
       </c>
@@ -26914,7 +26917,7 @@
         <v>44042</v>
       </c>
     </row>
-    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" s="5" t="s">
         <v>917</v>
       </c>
@@ -26936,7 +26939,7 @@
         <v>43956</v>
       </c>
     </row>
-    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" s="5" t="s">
         <v>918</v>
       </c>
@@ -26958,7 +26961,7 @@
         <v>44019</v>
       </c>
     </row>
-    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" s="5" t="s">
         <v>919</v>
       </c>
@@ -26980,7 +26983,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" s="5" t="s">
         <v>920</v>
       </c>
@@ -27002,7 +27005,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" s="5" t="s">
         <v>921</v>
       </c>
@@ -27024,7 +27027,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" s="5" t="s">
         <v>922</v>
       </c>
@@ -27046,7 +27049,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" s="5" t="s">
         <v>923</v>
       </c>
@@ -27068,7 +27071,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" s="5" t="s">
         <v>924</v>
       </c>
@@ -27090,7 +27093,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" s="5" t="s">
         <v>925</v>
       </c>
@@ -27112,7 +27115,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" s="5" t="s">
         <v>926</v>
       </c>
@@ -27134,7 +27137,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" s="5" t="s">
         <v>927</v>
       </c>
@@ -27156,7 +27159,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="938" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" s="5" t="s">
         <v>928</v>
       </c>
@@ -27178,7 +27181,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" s="5" t="s">
         <v>929</v>
       </c>
@@ -27200,7 +27203,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" s="5" t="s">
         <v>930</v>
       </c>
@@ -27222,7 +27225,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" s="5" t="s">
         <v>931</v>
       </c>
@@ -27244,7 +27247,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" s="5" t="s">
         <v>932</v>
       </c>
@@ -27266,7 +27269,7 @@
         <v>43961</v>
       </c>
     </row>
-    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" s="5" t="s">
         <v>933</v>
       </c>
@@ -27288,7 +27291,7 @@
         <v>43995</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" s="5" t="s">
         <v>934</v>
       </c>
@@ -27310,7 +27313,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" s="5" t="s">
         <v>935</v>
       </c>
@@ -27332,7 +27335,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" s="5" t="s">
         <v>936</v>
       </c>
@@ -27354,7 +27357,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" s="5" t="s">
         <v>937</v>
       </c>
@@ -27376,7 +27379,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" s="5" t="s">
         <v>938</v>
       </c>
@@ -27398,7 +27401,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" s="5" t="s">
         <v>939</v>
       </c>
@@ -27420,7 +27423,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" s="5" t="s">
         <v>940</v>
       </c>
@@ -27442,7 +27445,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="951" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" s="5" t="s">
         <v>941</v>
       </c>
@@ -27464,7 +27467,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" s="5" t="s">
         <v>942</v>
       </c>
@@ -27486,7 +27489,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="953" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" s="5" t="s">
         <v>943</v>
       </c>
@@ -27508,7 +27511,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" s="5" t="s">
         <v>944</v>
       </c>
@@ -27530,7 +27533,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="955" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" s="5" t="s">
         <v>945</v>
       </c>
@@ -27552,7 +27555,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" s="5" t="s">
         <v>946</v>
       </c>
@@ -27574,7 +27577,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" s="5" t="s">
         <v>947</v>
       </c>
@@ -27596,7 +27599,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" s="5" t="s">
         <v>948</v>
       </c>
@@ -27618,7 +27621,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" s="5" t="s">
         <v>949</v>
       </c>
@@ -27640,7 +27643,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="5" t="s">
         <v>950</v>
       </c>
@@ -27662,7 +27665,7 @@
         <v>44035</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" s="5" t="s">
         <v>951</v>
       </c>
@@ -27684,7 +27687,7 @@
         <v>44061</v>
       </c>
     </row>
-    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" s="5" t="s">
         <v>952</v>
       </c>
@@ -27706,7 +27709,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="963" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" s="5" t="s">
         <v>953</v>
       </c>
@@ -27728,7 +27731,7 @@
         <v>44033</v>
       </c>
     </row>
-    <row r="964" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" s="5" t="s">
         <v>954</v>
       </c>
@@ -27750,7 +27753,7 @@
         <v>44014</v>
       </c>
     </row>
-    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" s="5" t="s">
         <v>955</v>
       </c>
@@ -27772,7 +27775,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" s="5" t="s">
         <v>956</v>
       </c>
@@ -27794,7 +27797,7 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" s="5" t="s">
         <v>957</v>
       </c>
@@ -27816,7 +27819,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" s="5" t="s">
         <v>958</v>
       </c>
@@ -27838,7 +27841,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" s="5" t="s">
         <v>959</v>
       </c>
@@ -27860,7 +27863,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" s="5" t="s">
         <v>960</v>
       </c>
@@ -27882,7 +27885,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="971" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" s="5" t="s">
         <v>961</v>
       </c>
@@ -27904,7 +27907,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" s="5" t="s">
         <v>962</v>
       </c>
@@ -27926,7 +27929,7 @@
         <v>43989</v>
       </c>
     </row>
-    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" s="5" t="s">
         <v>963</v>
       </c>
@@ -27948,7 +27951,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" s="5" t="s">
         <v>964</v>
       </c>
@@ -27970,7 +27973,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" s="5" t="s">
         <v>965</v>
       </c>
@@ -27992,7 +27995,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" s="5" t="s">
         <v>966</v>
       </c>
@@ -28014,7 +28017,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" s="5" t="s">
         <v>967</v>
       </c>
@@ -28036,7 +28039,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" s="5" t="s">
         <v>968</v>
       </c>
@@ -28058,7 +28061,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="979" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" s="5" t="s">
         <v>969</v>
       </c>
@@ -28080,7 +28083,7 @@
         <v>43967</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" s="5" t="s">
         <v>970</v>
       </c>
@@ -28102,7 +28105,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" s="5" t="s">
         <v>971</v>
       </c>
@@ -28124,7 +28127,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" s="5" t="s">
         <v>972</v>
       </c>
@@ -28146,7 +28149,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" s="5" t="s">
         <v>973</v>
       </c>
@@ -28168,7 +28171,7 @@
         <v>44037</v>
       </c>
     </row>
-    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" s="5" t="s">
         <v>974</v>
       </c>
@@ -28190,7 +28193,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" s="5" t="s">
         <v>975</v>
       </c>
@@ -28212,7 +28215,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" s="5" t="s">
         <v>976</v>
       </c>
@@ -28234,7 +28237,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" s="5" t="s">
         <v>977</v>
       </c>
@@ -28256,7 +28259,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" s="5" t="s">
         <v>978</v>
       </c>
@@ -28278,7 +28281,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" s="5" t="s">
         <v>979</v>
       </c>
@@ -28300,7 +28303,7 @@
         <v>43951</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" s="5" t="s">
         <v>980</v>
       </c>
@@ -28322,7 +28325,7 @@
         <v>44016</v>
       </c>
     </row>
-    <row r="991" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" s="5" t="s">
         <v>981</v>
       </c>
@@ -28344,7 +28347,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" s="5" t="s">
         <v>982</v>
       </c>
@@ -28366,7 +28369,7 @@
         <v>43954</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" s="5" t="s">
         <v>983</v>
       </c>
@@ -28388,7 +28391,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" s="5" t="s">
         <v>984</v>
       </c>
@@ -28410,7 +28413,7 @@
         <v>44030</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" s="5" t="s">
         <v>985</v>
       </c>
@@ -28432,7 +28435,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" s="5" t="s">
         <v>986</v>
       </c>
@@ -28454,7 +28457,7 @@
         <v>44058</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" s="5" t="s">
         <v>987</v>
       </c>
@@ -28476,7 +28479,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" s="5" t="s">
         <v>988</v>
       </c>
@@ -28498,7 +28501,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" s="5" t="s">
         <v>989</v>
       </c>
@@ -28520,7 +28523,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" s="5" t="s">
         <v>990</v>
       </c>
@@ -28542,7 +28545,7 @@
         <v>43918</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" s="5" t="s">
         <v>991</v>
       </c>
@@ -28564,7 +28567,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1002" s="5" t="s">
         <v>992</v>
       </c>
@@ -28586,7 +28589,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1003" s="5" t="s">
         <v>993</v>
       </c>
@@ -28608,7 +28611,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1004" s="5" t="s">
         <v>994</v>
       </c>
@@ -28630,7 +28633,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1005" s="5" t="s">
         <v>995</v>
       </c>
@@ -28652,7 +28655,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1006" s="5" t="s">
         <v>996</v>
       </c>
@@ -28674,7 +28677,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1007" s="5" t="s">
         <v>997</v>
       </c>
@@ -28696,7 +28699,7 @@
         <v>43905</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1008" s="5" t="s">
         <v>998</v>
       </c>
@@ -28718,7 +28721,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1009" s="5" t="s">
         <v>999</v>
       </c>
@@ -28740,7 +28743,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1010" s="5" t="s">
         <v>1000</v>
       </c>
@@ -28762,7 +28765,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1011" s="5" t="s">
         <v>1001</v>
       </c>
@@ -28784,7 +28787,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1012" s="5" t="s">
         <v>1002</v>
       </c>
@@ -28806,7 +28809,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1013" s="5" t="s">
         <v>1003</v>
       </c>
@@ -28828,7 +28831,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1014" s="5" t="s">
         <v>1004</v>
       </c>
@@ -28850,7 +28853,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1015" s="5" t="s">
         <v>1005</v>
       </c>
@@ -28872,7 +28875,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1016" s="5" t="s">
         <v>1006</v>
       </c>
@@ -28894,7 +28897,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1017" s="5" t="s">
         <v>1007</v>
       </c>
@@ -28916,7 +28919,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1018" s="5" t="s">
         <v>1008</v>
       </c>
@@ -28938,7 +28941,7 @@
         <v>43912</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1019" s="5" t="s">
         <v>1009</v>
       </c>
@@ -28960,7 +28963,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1020" s="5" t="s">
         <v>1010</v>
       </c>
@@ -28982,7 +28985,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1021" s="5" t="s">
         <v>1011</v>
       </c>
@@ -29004,7 +29007,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1022" s="5" t="s">
         <v>1012</v>
       </c>
@@ -29026,7 +29029,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1023" s="5" t="s">
         <v>1013</v>
       </c>
@@ -29048,7 +29051,7 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1024" s="5" t="s">
         <v>1014</v>
       </c>
@@ -29070,7 +29073,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1025" s="5" t="s">
         <v>1015</v>
       </c>
@@ -29092,7 +29095,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1026" s="5" t="s">
         <v>1016</v>
       </c>
@@ -29114,7 +29117,7 @@
         <v>44040</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1027" s="5" t="s">
         <v>1017</v>
       </c>
@@ -29136,7 +29139,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1028" s="5" t="s">
         <v>1018</v>
       </c>
@@ -29158,7 +29161,7 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1029" s="5" t="s">
         <v>1019</v>
       </c>
@@ -29180,7 +29183,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1030" s="5" t="s">
         <v>1020</v>
       </c>
@@ -29202,7 +29205,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1031" s="5" t="s">
         <v>1021</v>
       </c>
@@ -29224,7 +29227,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1032" s="5">
         <v>76834</v>
       </c>
@@ -29246,7 +29249,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1033" s="5" t="s">
         <v>1022</v>
       </c>
@@ -29268,7 +29271,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1034" s="5" t="s">
         <v>1023</v>
       </c>
@@ -29290,7 +29293,7 @@
         <v>44010</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1035" s="5" t="s">
         <v>1024</v>
       </c>
@@ -29312,7 +29315,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1036" s="5" t="s">
         <v>1025</v>
       </c>
@@ -29334,7 +29337,7 @@
         <v>43923</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1037" s="5" t="s">
         <v>1026</v>
       </c>
@@ -29356,7 +29359,7 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1038" s="5" t="s">
         <v>1027</v>
       </c>
@@ -29378,7 +29381,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1039" s="5" t="s">
         <v>1028</v>
       </c>
@@ -29400,7 +29403,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1040" s="5" t="s">
         <v>1029</v>
       </c>
@@ -29422,7 +29425,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1041" s="5" t="s">
         <v>1030</v>
       </c>
@@ -29444,7 +29447,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1042" s="5" t="s">
         <v>1031</v>
       </c>
@@ -29466,7 +29469,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1043" s="5" t="s">
         <v>1032</v>
       </c>
@@ -29488,7 +29491,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1044" s="5" t="s">
         <v>1033</v>
       </c>
@@ -29510,7 +29513,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1045" s="5" t="s">
         <v>1034</v>
       </c>
@@ -29533,13 +29536,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1045" xr:uid="{81F32666-F94E-486C-9743-1E9AA25B1683}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="08"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29806,6 +29802,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="94123ac0-bc49-4844-b4d9-cf6d67fc439f" xsi:nil="true"/>
@@ -29815,15 +29820,6 @@
     <TaxCatchAll xmlns="7a6c8e4c-0868-4c46-a1e8-f3dda505f73b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29846,6 +29842,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894C8342-DCD9-4AC0-B3EA-99ED4464108A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6AEA7E-26DF-4EC5-8549-1840B164AB4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -29854,12 +29858,4 @@
     <ds:schemaRef ds:uri="7a6c8e4c-0868-4c46-a1e8-f3dda505f73b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894C8342-DCD9-4AC0-B3EA-99ED4464108A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>